--- a/Graphs/BloomingSpecies~NestingPlotBeeSpecies/Nesting Plot Bees by Site and Date 4.xlsx
+++ b/Graphs/BloomingSpecies~NestingPlotBeeSpecies/Nesting Plot Bees by Site and Date 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{7E744CE8-369C-49B4-B869-87333524EF8C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{7E744CE8-369C-49B4-B869-87333524EF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Augochlorella aurata</t>
   </si>
@@ -90,13 +90,22 @@
   </si>
   <si>
     <t>No. Specimens</t>
+  </si>
+  <si>
+    <t>Cleptoparasitic?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,14 +119,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -135,17 +136,15 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,51 +196,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,21 +563,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A2E5C4-9633-4212-BF95-4EDF229D7B0B}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -582,381 +588,504 @@
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>10</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="D14" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+      <c r="D18" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
+      <c r="D27" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>9</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
+      <c r="D29" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
+      <c r="D32" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>8</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="D35" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+      <c r="D38" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="7">
         <v>3</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
